--- a/standalong.xlsx
+++ b/standalong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natong\Dropbox\PhD\RFID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natong\Desktop\RFID-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8841F2-FBB2-4424-9F41-020985A389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20682E-A209-42B1-ABF8-5E436957A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7450" yWindow="3510" windowWidth="28800" windowHeight="15460" xr2:uid="{DEFF84B5-F738-4BD0-AF6B-FE902AB1182A}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="16960" xr2:uid="{DEFF84B5-F738-4BD0-AF6B-FE902AB1182A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Tablet</t>
   </si>
@@ -50,15 +50,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Android-Tablet-Bluetooth-8000mAh-Certified/dp/B0BDDYBCHF/ref=sr_1_5?hvadid=416743121191&amp;hvdev=c&amp;hvlocphy=9003275&amp;hvnetw=g&amp;hvqmt=b&amp;hvrand=14191575466544523293&amp;hvtargid=kwd-333969317684&amp;hydadcr=18009_11397338&amp;keywords=wifi%2Benabled%2Btablet&amp;qid=1687270392&amp;refinements=p_n_size_browse-bin%3A7817240011%2Cp_36%3A-20000&amp;rnid=386442011&amp;s=pc&amp;sr=1-5&amp;th=1</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>It doesn't need to be an iPad. Anything that can access WiFi should be fine</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/TP-Link-AC1900-Smart-Wifi-Router/dp/B08C3YBBHM/ref=sr_1_16?crid=32SY6F6Z4LHFM&amp;keywords=wifi+router&amp;qid=1686762083&amp;sprefix=wifi+router+%2Caps%2C78&amp;sr=8-16</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>https://www.atlasrfidstore.com/impinj-speedway-connect-software/</t>
   </si>
   <si>
-    <t xml:space="preserve">PC </t>
-  </si>
-  <si>
     <t>RFID Reader</t>
   </si>
   <si>
@@ -89,14 +77,41 @@
     <t xml:space="preserve">total </t>
   </si>
   <si>
-    <t>Can be the same one purchased last time</t>
+    <t>https://www.amazon.com/Pieces-Holder-Armband-Visibility-Adjustable/dp/B09J541S3Y/ref=sr_1_5?dib=eyJ2IjoiMSJ9._LWvVcmMBm0HnL4JZLb9QO7JUNWam7fxH0EcX6RrseYqna3TcwPP7dk9V8Ow8A1T6a3VcbY6fQSQUgEh4Gzkzn8Nh-Tw18TmAwkqNM3jm6SaodyMwTypZ6kbEAkfr5cJe-YRSNrHq8LJD1bwi8OR7BhtrtYugxzAHO1MacztK9_NZu2_NsvgmqJ6v5f2WbWA3Ln4KzgHn-ulh8N6ze4N5tw0D5jA1hvq8yOQ0W2GMANlNe1c6GUH1sIXMDA9rurrV6lgJ_enF-r_YgmYwcQRZapt5WkdX6mZYzKVjiQ8f2U1rhnBgVYngCYEekuOOClDwDj9-czi1C-CaNW-N6FYB_gmQF9-_bh_0Vm4f4yxbwFqcmkW4dz1J99PYivJXz0lsDCZ_dWj2pVIk3cV39piUFXUrYxsjEjN9KFs1adH8onorDjqluX_1oqKSsnSZCLX.5boJPDt5PewjEAUFye-8V4LJr7_TqymLgMh5YWmG4Fc&amp;dib_tag=se&amp;keywords=5%2Bpieces%2BPVC%2BID%2Bbadge%2Bholder%2Bhigh%2Bvisibility%2Bski%2Bpass%2Bholder%2Barmband%2Bid%2Bcard%2Bholder%2Bbadge%2Barm%2Bholder%2Bwrist%2Bcard%2Bholder%2Bwith%2Badjustable%2Bstrap%2Bclear%2Bname%2Btag%2Bholder%2Bfor%2Bwork%2Bpass&amp;qid=1737144043&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Android-Octa-Core-Keyboard-Bluetooth-Widevine/dp/B0DFCCQ588/ref=sr_1_3?crid=2IPA92KYU7GLM&amp;dib=eyJ2IjoiMSJ9.dM18p-EWAGWOvb49xM8IzcmM4qWQ5t58armW1VuC_utVDrHlCXZi8yqVS8968uxfw9PXQ8Qc1jEb7yL2OgqYQ4DLfNUtXT0oYz-Jrv9soy1UyFoLW1JbbZecsy1PlQW3QVgsT2qCyVVmZOqIlBJ7n4scFcB-YHFCmFGh_9CtNUTyR-AKAMh3pG_jHEyyDVU5vLVtG1BHzbQg4G_GGhSupz9MB_smoSqhB3K84NHM5g6rDOdAyBsl2kuYNVbIHkjTHHT2YsI4IdAQmZO5oNjZ_A4eCMi17AlZgOAiUUijrpGnCniC3e4vlBoy9aYuvGzPuDLv6ABcHO0oCGMvV-LWRFaOHcavN2g-jfltD1SosQ4.J7nI2kEAKfoAxpXBk2OsQUag83UAI9nXFA39yvKFd2Q&amp;dib_tag=se&amp;keywords=tablet%2Bwith%2Btwo%2Bwifi%2Bchannel&amp;qid=1734392888&amp;refinements=p_n_size_browse-bin%3A7817239011%2Cp_72%3A1248879011&amp;rnid=1248877011&amp;s=electronics&amp;sprefix=tablet%2Bwith%2Btwo%2Bwifi%2Bchannnel%2B%2Caps%2C79&amp;sr=1-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>Ethernet cables</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cat-Ethernet-Cable-White-Connectors/dp/B00WD017GQ/ref=sr_1_8?crid=1S2FFCXRO6GVE&amp;dib=eyJ2IjoiMSJ9.jURdb_ANuUCl037gSNSDqK_FA0ACZ8lCc6-xuVQ8eH_SWn7JD-QdGHBBfB3P9EY8ca3drzlYJhDUl2a8emDyX06nSbJqw-xUWOOHf_j6NbdpVQbnTPp59_Kz3ZyYjAzlfYrKeO0ML8TYDqxhNXe8w6qP03Tbl7y-RD-2yzQnnJSfa6XulOGOir_mPqOsR7ouaCE2jTAFDITqTuYYUq30t9hTC8rDubWttCzDtZg68HouK49ODr_Lpf2XJvyOiNOu6AIpUE2AR9ifaSEjrSxXEskVPn3XF6ld5OrqdJyVfkn-ZxhmB_qUgb0lrF9H7v0Z7UvPNeDu6EUHPDvvy-eEhTtz5-TEoQsZEerGvNHotc0.bOSEelHeZlO599h7B-gMPf1yJBtzpgrby0LdSkZIlTc&amp;dib_tag=se&amp;keywords=RJ45%2Bethernet%2Bcable&amp;qid=1737510504&amp;s=electronics&amp;sprefix=rj45%2Bethernet%2Bcable%2B%2Celectronics%2C108&amp;sr=1-8&amp;th=1</t>
+  </si>
+  <si>
+    <t>Items (quantity)</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>RFID tags</t>
+  </si>
+  <si>
+    <t>need a Wondows PC or laptop</t>
+  </si>
+  <si>
+    <t>waiting  response on customized tag from store</t>
+  </si>
+  <si>
+    <t>RFID tag holder (5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +135,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,19 +164,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,116 +495,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4E9AFF-B986-41A1-8AEA-733AB58A75C4}">
-  <dimension ref="E4:H12"/>
+  <dimension ref="E4:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="34.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="130.54296875" customWidth="1"/>
+    <col min="1" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="19" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="5"/>
+    <col min="7" max="7" width="31" style="5" customWidth="1"/>
+    <col min="8" max="8" width="130.54296875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>139.99</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>54.99</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F6" s="5">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
+      <c r="F7" s="5">
+        <v>250</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+      <c r="F8" s="5">
+        <v>1905</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2">
-        <v>250</v>
-      </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+      <c r="F9" s="5">
+        <f>272*2</f>
+        <v>544</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2">
-        <v>1905</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2">
-        <f>254*2</f>
-        <v>508</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2">
-        <f>SUM(F5,F6,F7,F8,F9)</f>
-        <v>2787.98</v>
+      <c r="F14" s="5">
+        <f>SUM(F5:F13)</f>
+        <v>2928.9599999999996</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1" xr:uid="{18C812A3-9B18-4578-93D0-097B1353DA1E}"/>
     <hyperlink ref="H9" r:id="rId2" xr:uid="{2197CE51-B80C-4E14-881C-C725738CFB67}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{6DB18A46-26A4-4E02-BF29-62CCD4F87B26}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{62EC7D1E-371C-41C1-A40C-0E8592EB8D2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/standalong.xlsx
+++ b/standalong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natong\Desktop\RFID-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20682E-A209-42B1-ABF8-5E436957A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD92764-40D1-480E-AFFB-173325A77323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="16960" xr2:uid="{DEFF84B5-F738-4BD0-AF6B-FE902AB1182A}"/>
   </bookViews>
@@ -164,21 +164,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -503,12 +501,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="5"/>
-    <col min="7" max="7" width="31" style="5" customWidth="1"/>
-    <col min="8" max="8" width="130.54296875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4"/>
+    <col min="7" max="7" width="31" style="4" customWidth="1"/>
+    <col min="8" max="8" width="130.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:8" x14ac:dyDescent="0.35">
@@ -526,21 +522,21 @@
       </c>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>139.99</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>69.989999999999995</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -548,10 +544,10 @@
       </c>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>250</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -559,55 +555,55 @@
       </c>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1905</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>272*2</f>
         <v>544</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>9.99</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>9.99</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -615,15 +611,15 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>SUM(F5:F13)</f>
         <v>2928.9599999999996</v>
       </c>
